--- a/src/main/resources/api接数.xlsx
+++ b/src/main/resources/api接数.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/everywherewego/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/everywherewego/IdeaProjects/apitokafka/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC92B2E-E843-0246-BFAE-8196604C46E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5092538-1C36-FE45-A02C-5E20B20495B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22500" xr2:uid="{330DB0D6-3167-A74E-BBDA-0ECD2BD39238}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22360" xr2:uid="{330DB0D6-3167-A74E-BBDA-0ECD2BD39238}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
   </si>
   <si>
     <t>返回值格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用频率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -131,11 +127,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://newsg.datamanage.cloud/api/public/zhdxdrkxx?access_token=A7EAasYoAdGcSRuKTjVfjBwNL4JLXQcdFFR2Cz4qZdY</t>
+    <t>调用频率（秒）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E547BC-27B3-754A-B4E6-82F4B608CF24}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -523,7 +515,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -532,19 +524,19 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16" customHeight="1">
@@ -552,22 +544,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16" customHeight="1">
@@ -575,36 +567,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -626,10 +601,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
